--- a/internal_crossValidation_20190927.xlsx
+++ b/internal_crossValidation_20190927.xlsx
@@ -19,22 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="80">
-  <si>
-    <t>base_clust_1</t>
-  </si>
-  <si>
-    <t>base_clust_2</t>
-  </si>
-  <si>
-    <t>base_clust_3</t>
-  </si>
-  <si>
-    <t>base_clust_4</t>
-  </si>
-  <si>
-    <t>base_clust_5</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="82">
   <si>
     <t>Cirrhosis</t>
   </si>
@@ -259,6 +244,27 @@
   </si>
   <si>
     <t>partition_subtype_5</t>
+  </si>
+  <si>
+    <t>Comorbidities</t>
+  </si>
+  <si>
+    <t>base_subtype_1</t>
+  </si>
+  <si>
+    <t>base_subtype_2</t>
+  </si>
+  <si>
+    <t>base_subtype_3</t>
+  </si>
+  <si>
+    <t>base_subtype_4</t>
+  </si>
+  <si>
+    <t>base_subtype_5</t>
+  </si>
+  <si>
+    <t>Supplementary table 1 : comparison of outcomes and main clinical features in the original data ('base') and the cross-validation ('partition') over 10 iterations</t>
   </si>
 </sst>
 </file>
@@ -742,9 +748,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1066,480 +1075,500 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.453125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.453125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.453125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.453125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.453125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" t="s">
-        <v>78</v>
-      </c>
-      <c r="I1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K1" t="s">
-        <v>4</v>
-      </c>
+      <c r="B1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="1">
-        <v>2</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="1">
-        <v>17.2</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" s="1">
-        <v>9.8000000000000007</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1.3</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="1">
-        <v>16.3</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4" s="1">
-        <v>6.8</v>
+        <v>75</v>
+      </c>
+      <c r="B3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H3" t="s">
+        <v>73</v>
+      </c>
+      <c r="I3" t="s">
+        <v>79</v>
+      </c>
+      <c r="J3" t="s">
+        <v>74</v>
+      </c>
+      <c r="K3" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5">
-        <v>13.5</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5">
-        <v>29.6</v>
-      </c>
-      <c r="F5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5">
-        <v>5.8</v>
+        <v>0</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.3</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="I5" s="1">
-        <v>27</v>
+        <v>17.2</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="K5" s="1">
-        <v>33.9</v>
+        <v>9.8000000000000007</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C6" s="1">
-        <v>1.7</v>
+        <v>0.2</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="E6" s="1">
-        <v>7.1</v>
-      </c>
-      <c r="F6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6">
-        <v>0.6</v>
+        <v>1.3</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.2</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="I6" s="1">
-        <v>6.5</v>
+        <v>16.3</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="K6" s="1">
-        <v>9.8000000000000007</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="C7">
-        <v>5.9</v>
+        <v>13.5</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="E7">
-        <v>16.8</v>
+        <v>29.6</v>
       </c>
       <c r="F7" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="G7">
-        <v>2.9</v>
+        <v>5.8</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="I7" s="1">
-        <v>6.1</v>
+        <v>27</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="K7" s="1">
-        <v>23.3</v>
+        <v>33.9</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C8" s="1">
-        <v>0.3</v>
+        <v>1.7</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="E8" s="1">
-        <v>1.8</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0.1</v>
+        <v>7.1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8">
+        <v>0.6</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I8" s="1">
-        <v>5.0999999999999996</v>
+        <v>6.5</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="K8" s="1">
-        <v>35.799999999999997</v>
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9">
+        <v>5.9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>16.8</v>
+      </c>
+      <c r="F9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9">
+        <v>2.9</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" s="1">
+        <v>6.1</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9" s="1">
+        <v>23.3</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10">
-        <v>56.2</v>
+        <v>29</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.3</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="E10" s="1">
-        <v>54.4</v>
-      </c>
-      <c r="F10" t="s">
-        <v>42</v>
-      </c>
-      <c r="G10">
-        <v>50.1</v>
+        <v>1.8</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.1</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="I10" s="1">
-        <v>46.2</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="K10" s="1">
-        <v>43.4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B11" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11">
-        <v>31.8</v>
-      </c>
-      <c r="D11" t="s">
-        <v>47</v>
-      </c>
-      <c r="E11">
-        <v>48.2</v>
-      </c>
-      <c r="F11" t="s">
-        <v>48</v>
-      </c>
-      <c r="G11">
-        <v>27.2</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I11" s="1">
-        <v>45.7</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K11" s="1">
-        <v>48</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="C12">
-        <v>55.9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>53</v>
-      </c>
-      <c r="E12">
-        <v>70.400000000000006</v>
+        <v>56.2</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="1">
+        <v>54.4</v>
       </c>
       <c r="F12" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="G12">
+        <v>50.1</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12" s="1">
+        <v>46.2</v>
+      </c>
+      <c r="J12" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H12" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="I12" s="1">
-        <v>62.9</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="K12" s="1">
-        <v>63.7</v>
+        <v>43.4</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="B13" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="C13">
+        <v>31.8</v>
+      </c>
+      <c r="D13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13">
+        <v>48.2</v>
+      </c>
+      <c r="F13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13">
+        <v>27.2</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I13" s="1">
         <v>45.7</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E13" s="1">
-        <v>57.7</v>
-      </c>
-      <c r="F13" t="s">
-        <v>60</v>
-      </c>
-      <c r="G13">
-        <v>13.7</v>
-      </c>
-      <c r="H13" t="s">
-        <v>61</v>
-      </c>
-      <c r="I13">
-        <v>37.4</v>
-      </c>
       <c r="J13" s="1" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="K13" s="1">
-        <v>52.8</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="B14" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="C14">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E14" s="1">
-        <v>30.1</v>
+        <v>55.9</v>
+      </c>
+      <c r="D14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14">
+        <v>70.400000000000006</v>
       </c>
       <c r="F14" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="G14">
-        <v>3.6</v>
+        <v>39</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="I14" s="1">
-        <v>78.099999999999994</v>
+        <v>62.9</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="K14" s="1">
-        <v>79.099999999999994</v>
+        <v>63.7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15">
+        <v>45.7</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="1">
+        <v>57.7</v>
+      </c>
+      <c r="F15" t="s">
+        <v>55</v>
+      </c>
+      <c r="G15">
+        <v>13.7</v>
+      </c>
+      <c r="H15" t="s">
+        <v>56</v>
+      </c>
+      <c r="I15">
+        <v>37.4</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K15" s="1">
+        <v>52.8</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E16" s="1">
+        <v>30.1</v>
+      </c>
+      <c r="F16" t="s">
+        <v>61</v>
+      </c>
+      <c r="G16">
+        <v>3.6</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I16" s="1">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K16" s="1">
+        <v>79.099999999999994</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18">
+        <v>8665</v>
+      </c>
+      <c r="D18" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18">
+        <v>548</v>
+      </c>
+      <c r="F18" t="s">
+        <v>67</v>
+      </c>
+      <c r="G18">
+        <v>2857</v>
+      </c>
+      <c r="H18" t="s">
+        <v>68</v>
+      </c>
+      <c r="I18">
+        <v>851</v>
+      </c>
+      <c r="J18" t="s">
         <v>69</v>
       </c>
-      <c r="B16" t="s">
-        <v>70</v>
-      </c>
-      <c r="C16">
-        <v>8665</v>
-      </c>
-      <c r="D16" t="s">
-        <v>71</v>
-      </c>
-      <c r="E16">
-        <v>548</v>
-      </c>
-      <c r="F16" t="s">
-        <v>72</v>
-      </c>
-      <c r="G16">
-        <v>2857</v>
-      </c>
-      <c r="H16" t="s">
-        <v>73</v>
-      </c>
-      <c r="I16">
-        <v>851</v>
-      </c>
-      <c r="J16" t="s">
-        <v>74</v>
-      </c>
-      <c r="K16">
+      <c r="K18">
         <v>369</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:K1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
